--- a/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,31 +257,13 @@
     <t>Thema: Wat is Maatschappijleer? Thema: Rechtsstaat</t>
   </si>
   <si>
-    <t>A, B1, B2, B3</t>
-  </si>
-  <si>
     <t>Thema: Parlementaire Democratie</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, A</t>
-  </si>
-  <si>
-    <t>C1, C2, C3</t>
   </si>
   <si>
     <t>Thema: Verzorgingsstaat</t>
   </si>
   <si>
-    <t>D1, D2, D3, D4, A1</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4</t>
-  </si>
-  <si>
     <t>Thema: Pluriforme Samenleving</t>
-  </si>
-  <si>
-    <t>E1, E2, E3, E4, A2</t>
   </si>
   <si>
     <t>A</t>
@@ -1301,7 +1283,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1415,7 +1397,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2167,7 +2149,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2281,7 +2263,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2455,9 +2437,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2466,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="27">
         <v>1</v>
@@ -2485,9 +2465,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2496,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="27">
         <v>1</v>
@@ -2517,9 +2495,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2528,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I21" s="27">
         <v>1</v>
@@ -2547,9 +2523,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2558,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I22" s="27">
         <v>1</v>
@@ -2579,9 +2553,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2590,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I23" s="27">
         <v>1</v>
@@ -2609,9 +2581,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -3085,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3199,7 +3169,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4055,7 +4025,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5010,7 +4980,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5826,7 +5796,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6642,7 +6612,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7381,9 +7351,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7398,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>1</v>
@@ -7417,9 +7385,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7434,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -7455,9 +7421,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7473,7 +7437,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -7492,9 +7456,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7502,7 +7464,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7510,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -7531,9 +7493,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7549,7 +7509,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I11" s="27">
         <v>1</v>
@@ -7568,9 +7528,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8386,7 +8344,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9242,7 +9200,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1469,7 +1469,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>82</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1489,9 +1491,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1683,7 +1683,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>83</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1888,7 +1890,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>84</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2335,7 +2339,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>85</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2412,7 +2418,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>160</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2440,7 +2448,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>161</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2468,7 +2478,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>162</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -2498,7 +2510,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>163</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2526,7 +2540,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>164</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>3</v>
@@ -2556,7 +2572,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>165</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2587,7 +2605,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>86</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2600,9 +2620,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2794,7 +2812,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>87</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3169,7 +3189,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3241,7 +3261,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>88</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3453,7 +3475,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>89</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3658,7 +3682,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>90</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3671,9 +3697,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4025,7 +4049,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4980,7 +5004,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5796,7 +5820,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6612,7 +6636,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7326,7 +7350,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>154</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7360,7 +7386,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>155</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7394,7 +7422,9 @@
       <c r="B8" s="2">
         <v>32</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>156</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7431,7 +7461,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>157</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7464,9 +7496,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>158</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -7503,7 +7537,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>159</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7550,7 +7586,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>78</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7570,9 +7608,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7764,7 +7800,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>79</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8344,7 +8382,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8416,7 +8454,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8628,7 +8668,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>81</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8641,9 +8683,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9200,7 +9240,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,19 +252,61 @@
     <t>MA</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4: Pluriforme samenleving, H7: Werk en H8: Criminaliteit </t>
+  </si>
+  <si>
+    <t>ML1/K/1, ML1/K/4, ML1/K/5</t>
+  </si>
+  <si>
+    <t>H3: Politiek, H5: Nederland en de wereld en H6: Media</t>
+  </si>
+  <si>
+    <t>Woordenboek niet toegestaan</t>
+  </si>
+  <si>
+    <t>ML1/K/6, ML1/K/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1: Wat is maatschappijleer? en H2: Jongeren </t>
+  </si>
+  <si>
+    <t>ML1/K/2, ML1/K/3</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Thema: Wat is Maatschappijleer? Thema: Rechtsstaat</t>
   </si>
   <si>
+    <t>A, B1, B2, B3</t>
+  </si>
+  <si>
     <t>Thema: Parlementaire Democratie</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, A</t>
+  </si>
+  <si>
+    <t>C1, C2, C3</t>
   </si>
   <si>
     <t>Thema: Verzorgingsstaat</t>
   </si>
   <si>
+    <t>D1, D2, D3, D4, A1</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
     <t>Thema: Pluriforme Samenleving</t>
+  </si>
+  <si>
+    <t>E1, E2, E3, E4, A2</t>
   </si>
   <si>
     <t>A</t>
@@ -1195,12 +1238,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1222,25 +1265,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>MA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1282,9 +1321,7 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -1310,9 +1347,7 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -1338,9 +1373,7 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>34</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -1368,7 +1401,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1397,7 +1430,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1464,17 +1497,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>82</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1489,7 +1520,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1506,7 +1537,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>MA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1683,12 +1714,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>83</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1713,7 +1742,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>MA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1890,12 +1919,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>84</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -1969,44 +1996,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2070,7 +2059,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2101,7 +2090,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>MA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>MA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2153,7 +2142,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2181,7 +2170,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2209,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2238,7 +2227,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2267,7 +2256,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2334,17 +2323,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2359,7 +2348,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2376,7 +2365,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>MA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>MA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2418,186 +2407,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>160</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="27">
-        <v>1</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>161</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>162</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>163</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="27">
-        <v>1</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>164</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>165</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="27">
-        <v>1</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2606,11 +2543,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2635,7 +2572,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>MA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>MA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2813,11 +2750,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2950,6 +2887,944 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>MA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>MA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>160</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>161</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>162</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>163</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>164</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>165</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="27">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>1</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>MA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>87</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3075,7 +3950,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3189,7 +4064,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4049,7 +4924,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5004,7 +5879,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5820,7 +6695,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6444,12 +7319,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6471,6 +7346,905 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>MA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>76</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>MA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>151</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>152</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>153</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>77</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>MA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6636,7 +8410,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7216,926 +8990,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>MA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>154</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>155</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
-        <v>156</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>157</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>158</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>159</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>1</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>78</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>MA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>79</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>MA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8185,7 +9039,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8216,7 +9070,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>MA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>MA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8268,84 +9122,118 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="2">
+        <v>154</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>155</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>156</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8353,28 +9241,38 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>157</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8382,28 +9280,42 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>158</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8413,26 +9325,36 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>159</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>1</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8449,17 +9371,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8474,7 +9396,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8491,7 +9413,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>MA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>MA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8669,11 +9591,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8698,7 +9620,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>MA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>MA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8878,7 +9800,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9048,12 +9970,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9075,21 +9997,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>MA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9131,7 +10057,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9157,7 +10085,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9183,7 +10113,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>33</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9211,7 +10143,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9240,7 +10172,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9307,15 +10239,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9330,7 +10264,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9347,7 +10281,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>MA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9524,10 +10458,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>81</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9552,7 +10488,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>MA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9732,7 +10668,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  MA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9806,6 +10742,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2277,7 +2277,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3357,7 +3357,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4514,7 +4514,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5623,7 +5623,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6698,7 +6698,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2">
         <v>158</v>
@@ -7844,7 +7844,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8922,7 +8922,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10002,7 +10002,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808854167</v>
+        <v>44341.376238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11082,7 +11082,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4822,75 +4822,109 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>715</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>716</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>717</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -5686,7 +5720,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6675,27 +6709,37 @@
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>718</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>1</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
@@ -6705,27 +6749,37 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>719</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
@@ -6735,27 +6789,41 @@
       <c r="B8" s="2">
         <v>200</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>720</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6766,27 +6834,37 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>721</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
@@ -6795,29 +6873,43 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629467593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>722</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
@@ -6828,27 +6920,37 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>723</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>1</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
@@ -7917,7 +8019,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2">
         <v>158</v>
@@ -9019,7 +9121,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10097,7 +10199,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11177,7 +11279,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38224537</v>
+        <v>44342.629467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11388,147 +11490,215 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>724</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>725</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>726</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>727</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>728</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>729</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>1</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">

--- a/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/MA PTA en onderwijsprogramma.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t xml:space="preserve">H4: Pluriforme samenleving, H7: Werk en H8: Criminaliteit </t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>ML1/K/1, ML1/K/4, ML1/K/5</t>
@@ -2165,7 +2168,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2519,7 +2522,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4932,7 +4935,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5321,10 +5324,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5396,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -5405,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -5417,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5492,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -5509,10 +5512,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7202,7 +7205,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7591,10 +7594,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7666,7 +7669,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -7675,7 +7678,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -7687,10 +7690,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7762,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -7779,10 +7782,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -9118,7 +9121,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
         <v>718</v>
@@ -9128,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9145,10 +9148,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9226,7 +9229,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -9243,10 +9246,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9324,7 +9327,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9333,7 +9336,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" s="45">
         <v>100</v>
@@ -9345,10 +9348,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9427,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -9444,10 +9447,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9516,7 +9519,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2">
         <v>722</v>
@@ -9526,7 +9529,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -9535,7 +9538,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" s="45">
         <v>100</v>
@@ -9547,10 +9550,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -9629,7 +9632,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -9646,10 +9649,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -11422,7 +11425,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
         <v>154</v>
@@ -11432,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11449,10 +11452,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11530,7 +11533,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11547,10 +11550,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11628,7 +11631,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11637,7 +11640,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" s="45">
         <v>100</v>
@@ -11649,10 +11652,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11731,7 +11734,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -11748,10 +11751,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -11820,7 +11823,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2">
         <v>158</v>
@@ -11830,7 +11833,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -11839,7 +11842,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" s="45">
         <v>100</v>
@@ -11851,10 +11854,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -11933,7 +11936,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -11950,10 +11953,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -13726,7 +13729,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14080,7 +14083,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -15962,7 +15965,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16316,7 +16319,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16688,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -16705,10 +16708,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16780,7 +16783,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -16797,10 +16800,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -16872,7 +16875,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -16881,7 +16884,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -16893,10 +16896,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16968,7 +16971,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -16985,10 +16988,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -17060,7 +17063,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -17069,7 +17072,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -17081,10 +17084,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -17156,7 +17159,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -17173,10 +17176,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -18268,7 +18271,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18622,7 +18625,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18994,7 +18997,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -19011,10 +19014,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -19086,7 +19089,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -19103,10 +19106,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -19178,7 +19181,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -19187,7 +19190,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -19199,10 +19202,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -19274,7 +19277,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -19291,10 +19294,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -19366,7 +19369,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -19375,7 +19378,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -19387,10 +19390,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -19462,7 +19465,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -19479,10 +19482,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
